--- a/Project/DB.xlsx
+++ b/Project/DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OwenDistrict\Github\Java\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java-main\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>학사관리 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,22 @@
   </si>
   <si>
     <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅔpw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,6 +889,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,18 +929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1216,10 +1232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14"/>
       <c r="E1" t="s">
         <v>66</v>
       </c>
@@ -1317,26 +1333,26 @@
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="I16" s="17" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="I16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="M16" s="10" t="s">
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="M16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1569,13 +1585,13 @@
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1589,6 +1605,9 @@
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E25" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1600,11 +1619,11 @@
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1681,6 +1700,17 @@
       </c>
       <c r="G30" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DB.xlsx
+++ b/Project/DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>학사관리 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,65 +66,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(6) PRIMARY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(2) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LECTURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(30) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEC_ROOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(5) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(4) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SEMESTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(1) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(11) NOT NULL</t>
-  </si>
-  <si>
     <t>COLLEGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(3) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인원제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(3) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STUDENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRO_ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입학년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STU_ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAR UML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,18 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEC_PRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEC_LIMIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEC_CURRENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAJOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,26 +302,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEC_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEC_CREDIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 수강신청 학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,27 +314,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VAR_NAME</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,79 +470,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입사년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHARCHAR(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
+    <t>where id = 2022001001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,15 +478,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅔpw</t>
+    <t>COLLEGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAJOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -572,37 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -741,7 +687,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -751,8 +699,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -762,7 +714,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -781,10 +735,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -796,10 +748,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -811,45 +761,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -858,18 +773,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -877,58 +792,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,44 +1144,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="7" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="26"/>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1256,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1267,29 +1200,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1297,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1305,15 +1238,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1333,394 +1266,487 @@
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="E16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="I16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="E16" s="18" t="s">
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="I16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="M16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="M17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" t="s">
-        <v>105</v>
-      </c>
-      <c r="O18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="I23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G24" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" t="s">
-        <v>106</v>
-      </c>
-      <c r="O19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="E33" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="I33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="I34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="I37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="F38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" t="s">
-        <v>123</v>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="M16:O16"/>
+  <mergeCells count="7">
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/DB.xlsx
+++ b/Project/DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java-main\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\Github\Java\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>학사관리 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학수번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,31 +282,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 수강신청 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLEGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAJOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 수강신청 학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAFF</t>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학수번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심과목여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,59 +478,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입사년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
+    <t>REGISTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,123 +486,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(6) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(3) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CURRENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30) NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>where id = 2022001001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLLEGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAJOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
+    <t>VARCHAR(20) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20) NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INQUIRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강등록기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강조회기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -767,13 +799,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +914,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +945,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,20 +1230,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
@@ -1165,23 +1252,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="30"/>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1189,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1200,29 +1287,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1230,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1238,15 +1325,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1266,21 +1353,21 @@
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="E16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="E16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1294,200 +1381,194 @@
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="8"/>
       <c r="I17" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>95</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>88</v>
@@ -1496,41 +1577,35 @@
         <v>19</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>21</v>
@@ -1544,13 +1619,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1561,13 +1636,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1576,15 +1651,15 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>26</v>
+    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1594,15 +1669,9 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="16"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1612,134 +1681,205 @@
     </row>
     <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="E33" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="I33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
+      <c r="A33" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="E33" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="I33" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
+      <c r="A34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G34" s="8"/>
       <c r="I34" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
+    <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="K37" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E38" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="E41" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="A1:B1"/>
@@ -1747,6 +1887,7 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/DB.xlsx
+++ b/Project/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>학사관리 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>수강조회기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학수번호코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,6 +938,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,9 +960,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,10 +1264,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="E1" t="s">
         <v>49</v>
       </c>
@@ -1353,21 +1365,21 @@
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="I16" s="31" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="I16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1681,21 +1693,21 @@
     </row>
     <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="E33" s="27" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="E33" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="I33" s="27" t="s">
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="I33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
@@ -1751,7 +1763,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1804,16 +1825,16 @@
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="E41" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
@@ -1873,7 +1894,7 @@
       <c r="B45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="27" t="s">
         <v>119</v>
       </c>
     </row>

--- a/Project/DB.xlsx
+++ b/Project/DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\Github\Java\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-8MDN1I9\web\forwdevel\workspace\Github\Java\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6C9AD-9732-47A6-95F4-CA16F5019F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,19 +550,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -570,7 +571,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -964,7 +965,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,29 +1242,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1278,12 +1279,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="E2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1319,12 +1320,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="I6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1348,23 +1349,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1"/>
+    <row r="16" spans="1:15" ht="21.5" thickBot="1">
       <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1385,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1408,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1468,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1613,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -1646,7 +1647,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -1663,7 +1664,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>92</v>
       </c>
@@ -1680,10 +1681,10 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="16"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="14"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1691,8 +1692,8 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15" thickBot="1"/>
+    <row r="33" spans="1:11" ht="21.5" thickBot="1">
       <c r="A33" s="28" t="s">
         <v>103</v>
       </c>
@@ -1709,7 +1710,7 @@
       <c r="J33" s="29"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="23" t="s">
         <v>102</v>
       </c>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>103</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>128</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" thickBot="1">
       <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" thickBot="1">
       <c r="E38" s="4" t="s">
         <v>79</v>
       </c>
@@ -1823,8 +1824,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" thickBot="1"/>
+    <row r="41" spans="1:11" ht="21.5" thickBot="1">
       <c r="A41" s="28" t="s">
         <v>113</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="23" t="s">
         <v>112</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" thickBot="1">
       <c r="A45" s="25" t="s">
         <v>118</v>
       </c>
